--- a/7.Template/Manager/GameUIManager/Resources/Localize.xlsx
+++ b/7.Template/Manager/GameUIManager/Resources/Localize.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\황인태\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\황인태\Documents\GitHub\Project\TemplateProject\Assets\MyLibrary\7.Template\Manager\GameUIManager\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Key</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -43,6 +43,46 @@
   </si>
   <si>
     <t>Chinese</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘가세요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bye</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ohaio</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GonbangWa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shjae</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -411,9 +451,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -437,6 +479,40 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
